--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2096122.059672363</v>
+        <v>2089105.044780652</v>
       </c>
     </row>
     <row r="7">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>38.09428873746673</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>71.04317147903357</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>36.05823687475733</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>25.5084719020914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>233.3621191562032</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>194.6613039919417</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>82.79076287901484</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.78417002079501</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>129.9970282407491</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>114.8791903675466</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229336</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>34.10367082611157</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853704</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491435</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>54.70191565295158</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1429,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1530,22 +1530,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>92.3065058728078</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>122.2151751544596</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>104.435614114766</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1897,10 +1897,10 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>103.3388316365583</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>14.7366432835706</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2374,7 +2374,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>65.2226951953584</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>88.23851788996306</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>29.18937547121085</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>26.97444673954876</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3246,13 +3246,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>169.7438101404385</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274077</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>0.1661384044145612</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>143.2925104849745</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>114.930904319359</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>195.5559609429028</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3757,7 +3757,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274077</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>57.64843562452406</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4137,13 +4137,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9539784782709</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1992.620445413572</v>
+        <v>919.5755868835438</v>
       </c>
       <c r="C2" t="n">
-        <v>1954.141365880777</v>
+        <v>550.6130699431321</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>550.6130699431321</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>550.6130699431321</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>543.6675691939287</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>125.7037610921155</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>125.7037610921155</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2366.086203674652</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1992.620445413572</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1992.620445413572</v>
+        <v>919.5755868835438</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2718927217162</v>
+        <v>691.7065227167806</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>541.5898833044448</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>444.0275768541693</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>444.0275768541693</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>216.038025956152</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1504.400259589023</v>
+        <v>1138.210253911481</v>
       </c>
       <c r="C5" t="n">
-        <v>1268.68094731003</v>
+        <v>769.2477369710689</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>410.9820383643184</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>410.9820383643184</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>404.0365376151149</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1894.539591564834</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>1894.539591564834</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y5" t="n">
-        <v>1504.400259589023</v>
+        <v>1138.210253911481</v>
       </c>
     </row>
     <row r="6">
@@ -4637,40 +4637,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>416.5124000972908</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>416.5124000972908</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>416.5124000972908</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4755,22 +4755,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>644.5019509953081</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>644.5019509953081</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>416.5124000972908</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>416.5124000972908</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1749.341643278937</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="C8" t="n">
-        <v>1749.341643278937</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177351</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224069</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977173</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642688</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2565.83896148211</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2565.83896148211</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2312.077176120202</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>1981.014288776631</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1628.245633506517</v>
       </c>
       <c r="X8" t="n">
-        <v>2526.08081531887</v>
+        <v>1254.779875245437</v>
       </c>
       <c r="Y8" t="n">
-        <v>2135.941483343059</v>
+        <v>864.6405432696254</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572642</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517454</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537798</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>291.7960311703076</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>291.7960311703076</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>291.7960311703076</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>291.7960311703076</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>291.7960311703076</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>291.7960311703076</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>134.0476586028378</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
         <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477908</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658207</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502497</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594897</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>409.5384547146236</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005474</v>
+        <v>154.8539665087368</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005474</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X10" t="n">
-        <v>473.4444960005474</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y10" t="n">
-        <v>473.4444960005474</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5041,16 +5041,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011506</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952637</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>785.7936752259998</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,22 +5290,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1096.475226584133</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C16" t="n">
-        <v>927.5390436562259</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D16" t="n">
-        <v>777.4224042438901</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E16" t="n">
-        <v>629.509310661497</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>482.6193631635866</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5469,19 +5469,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="Y16" t="n">
-        <v>1278.123691414372</v>
+        <v>560.1954542207687</v>
       </c>
     </row>
     <row r="17">
@@ -5515,10 +5515,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5597,19 +5597,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>592.8217113586352</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1394.533612339157</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1194.613602254709</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1194.613602254709</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1194.613602254709</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>1194.613602254709</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>1194.613602254709</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>966.6240513566914</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y19" t="n">
-        <v>745.8314722131613</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5737,40 +5737,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5834,19 +5834,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>485.4047026089419</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>732.1698305154059</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>579.0685056491545</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>260.0156833089119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>112.1025897265188</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>1209.499100520942</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>981.5095496229244</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>760.7169704793943</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,28 +5974,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6010,31 +6010,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,25 +6056,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643586</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>743.343162681252</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>677.4616523829102</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6159,40 +6159,40 @@
         <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974663</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.48306298006</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585743</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119724</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.921157035276</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247821</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>964.1357418247821</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V25" t="n">
-        <v>964.1357418247821</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W25" t="n">
-        <v>964.1357418247821</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X25" t="n">
-        <v>964.1357418247821</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>743.343162681252</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6208,28 +6208,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6247,22 +6247,22 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
@@ -6293,25 +6293,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643586</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>130.9054447954965</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1409.786454507435</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247858</v>
+        <v>1186.00103929694</v>
       </c>
       <c r="U28" t="n">
-        <v>675.007103038344</v>
+        <v>1186.00103929694</v>
       </c>
       <c r="V28" t="n">
-        <v>420.3226148324571</v>
+        <v>1186.00103929694</v>
       </c>
       <c r="W28" t="n">
-        <v>130.9054447954965</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="X28" t="n">
-        <v>130.9054447954965</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y28" t="n">
-        <v>130.9054447954965</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,25 +6481,25 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
@@ -6530,25 +6530,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643586</v>
@@ -6557,7 +6557,7 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="32">
@@ -6682,22 +6682,22 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
@@ -6724,13 +6724,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6767,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636248</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,46 +6864,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471153</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974663</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.48306298006</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585743</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473451</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.210845262957</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765148</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,43 +6925,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7022,16 +7022,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>434.3285960683721</v>
+        <v>247.8029164824583</v>
       </c>
       <c r="C37" t="n">
-        <v>265.3924131404652</v>
+        <v>247.8029164824583</v>
       </c>
       <c r="D37" t="n">
-        <v>265.3924131404652</v>
+        <v>247.8029164824583</v>
       </c>
       <c r="E37" t="n">
-        <v>265.3924131404652</v>
+        <v>247.8029164824583</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7125,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>1354.17636097712</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W37" t="n">
-        <v>1064.759190940159</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X37" t="n">
-        <v>836.769640042142</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="Y37" t="n">
-        <v>615.9770608986119</v>
+        <v>247.8029164824583</v>
       </c>
     </row>
     <row r="38">
@@ -7153,40 +7153,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7195,7 +7195,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>4075.197584164471</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
-        <v>4565.745155698578</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>416.2699138005285</v>
+        <v>213.3089140050929</v>
       </c>
       <c r="C40" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U40" t="n">
-        <v>1301.384996878203</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V40" t="n">
-        <v>1046.700508672316</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W40" t="n">
-        <v>1046.700508672316</v>
+        <v>843.7395088768801</v>
       </c>
       <c r="X40" t="n">
-        <v>818.7109577742983</v>
+        <v>615.7499579788628</v>
       </c>
       <c r="Y40" t="n">
-        <v>597.9183786307682</v>
+        <v>394.9573788353326</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7399,13 +7399,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7423,16 +7423,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7639,40 +7639,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1267.649625630356</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V46" t="n">
-        <v>1012.965137424469</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
-        <v>1012.965137424469</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>784.9755865264517</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451776</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9005,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>288.4091825776757</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,10 +9245,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>182.0340742867951</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>73.53204524670085</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,13 +9491,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298203</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10205,10 +10205,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>288.4091825776756</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776745</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>74.94031522582003</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23466,22 +23466,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>44.27839330891794</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>121.2740412742711</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.625520767234519</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="20">
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>130.6844047393606</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24177,16 +24177,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>102.0241259032694</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24618,7 +24618,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>115.5623585656776</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>109.6822920936402</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986318</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>192.3581855871784</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>259.2629056590286</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>82.39383318338946</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,13 +25323,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>145.2549096185167</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25365,13 +25365,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>108.8451328388535</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>52.31591677926882</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -25605,13 +25605,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>90.68139145567457</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>90.96703739368829</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,13 +26025,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U46" t="n">
-        <v>57.28337392030642</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>867392.8693883914</v>
+        <v>867392.8693883913</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>867392.8693883915</v>
+        <v>867392.8693883914</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>867392.8693883913</v>
+        <v>867392.8693883914</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>867392.8693883914</v>
+        <v>867392.8693883911</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>867392.8693883913</v>
+        <v>867392.8693883914</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>867392.8693883915</v>
+        <v>867392.8693883914</v>
       </c>
     </row>
   </sheetData>
@@ -26325,37 +26325,37 @@
         <v>508337.7776590217</v>
       </c>
       <c r="F2" t="n">
+        <v>508337.7776590218</v>
+      </c>
+      <c r="G2" t="n">
         <v>508337.7776590216</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>508337.7776590214</v>
+      </c>
+      <c r="I2" t="n">
+        <v>508337.7776590214</v>
+      </c>
+      <c r="J2" t="n">
         <v>508337.7776590217</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="L2" t="n">
+        <v>508337.7776590215</v>
+      </c>
+      <c r="M2" t="n">
+        <v>508337.7776590215</v>
+      </c>
+      <c r="N2" t="n">
         <v>508337.7776590216</v>
-      </c>
-      <c r="I2" t="n">
-        <v>508337.7776590216</v>
-      </c>
-      <c r="J2" t="n">
-        <v>508337.7776590215</v>
-      </c>
-      <c r="K2" t="n">
-        <v>508337.7776590216</v>
-      </c>
-      <c r="L2" t="n">
-        <v>508337.7776590216</v>
-      </c>
-      <c r="M2" t="n">
-        <v>508337.7776590217</v>
-      </c>
-      <c r="N2" t="n">
-        <v>508337.7776590217</v>
       </c>
       <c r="O2" t="n">
         <v>508337.7776590215</v>
       </c>
       <c r="P2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590215</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.048715921</v>
       </c>
       <c r="E4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="G4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="G4" t="n">
-        <v>7916.731656007485</v>
-      </c>
       <c r="H4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="K4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="O4" t="n">
         <v>7916.731656007485</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007487</v>
       </c>
     </row>
     <row r="5">
@@ -26475,13 +26475,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340943</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26490,19 +26490,19 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871661</v>
       </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-287066.8555820904</v>
+        <v>-287066.8555820906</v>
       </c>
       <c r="C6" t="n">
         <v>302901.023632454</v>
       </c>
       <c r="D6" t="n">
-        <v>302901.0236324541</v>
+        <v>302901.0236324545</v>
       </c>
       <c r="E6" t="n">
-        <v>-116726.3164225986</v>
+        <v>-117700.9076823206</v>
       </c>
       <c r="F6" t="n">
-        <v>408433.7200542975</v>
+        <v>407459.128794576</v>
       </c>
       <c r="G6" t="n">
-        <v>408433.7200542976</v>
+        <v>407459.1287945759</v>
       </c>
       <c r="H6" t="n">
-        <v>408433.7200542975</v>
+        <v>407459.1287945756</v>
       </c>
       <c r="I6" t="n">
-        <v>408433.7200542975</v>
+        <v>407459.1287945757</v>
       </c>
       <c r="J6" t="n">
-        <v>232010.5008617045</v>
+        <v>231035.9096019831</v>
       </c>
       <c r="K6" t="n">
-        <v>408433.7200542975</v>
+        <v>407459.1287945759</v>
       </c>
       <c r="L6" t="n">
-        <v>408433.7200542975</v>
+        <v>407459.1287945757</v>
       </c>
       <c r="M6" t="n">
-        <v>273632.7048204604</v>
+        <v>272658.1135607385</v>
       </c>
       <c r="N6" t="n">
-        <v>408433.7200542976</v>
+        <v>407459.1287945758</v>
       </c>
       <c r="O6" t="n">
-        <v>408433.7200542974</v>
+        <v>407459.1287945758</v>
       </c>
       <c r="P6" t="n">
-        <v>408433.7200542976</v>
+        <v>407459.1287945757</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170863</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>327.1786030335408</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>80.88814476582768</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,13 +27539,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>131.1885842238705</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27554,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>193.0761814500034</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>131.9107726148044</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>219.1228660288533</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27782,13 +27782,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27827,19 +27827,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>169.3468804448132</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748118</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>44.4186845682224</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>254.8519103109224</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28028,10 +28028,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>100.8619509662267</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28067,13 +28067,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>231.8210826836394</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29094,7 +29094,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29231,7 +29231,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>-3.582082778545252e-12</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29574,7 +29574,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29672,7 +29672,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29936,7 +29936,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554461</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405365</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633789</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473547</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141102</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188907</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396469</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.870296998312</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034977</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619148</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078604</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644436</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813573</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302232</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175835</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383792</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678003</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701161</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197221</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315607</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060962</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770683</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355141</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713947</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873141</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>621.6037559756885</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>332.6095128747343</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35980,7 +35980,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
         <v>528.689756130333</v>
@@ -36202,7 +36202,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>224.1074838346401</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
@@ -36211,13 +36211,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36527,7 +36527,7 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056001</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206028</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36925,10 +36925,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>570.7728848187837</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37165,7 +37165,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37232,7 +37232,7 @@
         <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799246</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37390,7 +37390,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37636,16 +37636,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>560.035498861915</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
